--- a/Python/Data/Final/blood_pmbc.xlsx
+++ b/Python/Data/Final/blood_pmbc.xlsx
@@ -7,24 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="AZ_missing_cts" sheetId="1" r:id="rId1"/>
+    <sheet name="Az_missing_cts" sheetId="1" r:id="rId1"/>
     <sheet name="Asctb_missing_cts" sheetId="2" r:id="rId2"/>
-    <sheet name="AZ_incorrect_cts" sheetId="3" r:id="rId3"/>
-    <sheet name="Asctb_incorrect_cts" sheetId="4" r:id="rId4"/>
-    <sheet name="AZ_ASCTB_Cts_perfect_matches" sheetId="5" r:id="rId5"/>
-    <sheet name="AZ_cts_not_found_in_ebi" sheetId="6" r:id="rId6"/>
-    <sheet name="Asctb_cts_not_found_in_ebi" sheetId="7" r:id="rId7"/>
-    <sheet name="AZ_mismatches_summary" sheetId="8" r:id="rId8"/>
-    <sheet name="Asctb_mismatches_summary" sheetId="9" r:id="rId9"/>
-    <sheet name="Asctb_cts_mismatch_final" sheetId="10" r:id="rId10"/>
-    <sheet name="AZ_cts_mismatch_final" sheetId="11" r:id="rId11"/>
+    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="3" r:id="rId3"/>
+    <sheet name="Az_incorrect_cts" sheetId="4" r:id="rId4"/>
+    <sheet name="Asctb_incorrect_cts" sheetId="5" r:id="rId5"/>
+    <sheet name="Az_match_tree_corsswalk" sheetId="6" r:id="rId6"/>
+    <sheet name="Asctb_match_tree_corsswalk" sheetId="7" r:id="rId7"/>
+    <sheet name="Asctb_cts_mismatch_final" sheetId="8" r:id="rId8"/>
+    <sheet name="Az_cts_mismatch_final" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="154">
   <si>
     <t>CT/ID</t>
   </si>
@@ -862,224 +860,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
@@ -1103,18 +883,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1145,187 +1085,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1345,28 +1104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1977,7 +1715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -2356,4 +2094,222 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python/Data/Final/blood_pmbc.xlsx
+++ b/Python/Data/Final/blood_pmbc.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="258">
   <si>
     <t>CT/ID</t>
   </si>
@@ -30,18 +30,27 @@
     <t>CT/LABEL</t>
   </si>
   <si>
+    <t>CT/LABEL.Author</t>
+  </si>
+  <si>
     <t>AZ.CT/ID</t>
   </si>
   <si>
     <t>AZ.CT/LABEL</t>
   </si>
   <si>
+    <t>AZ.CT/LABEL.Author</t>
+  </si>
+  <si>
     <t>ASCTB.CT/ID</t>
   </si>
   <si>
     <t>ASCTB.CT/LABEL</t>
   </si>
   <si>
+    <t>ASCTB.CT/LABEL.Author</t>
+  </si>
+  <si>
     <t>CL:0000576</t>
   </si>
   <si>
@@ -108,6 +117,126 @@
     <t>regulatory T cell</t>
   </si>
   <si>
+    <t>Mono</t>
+  </si>
+  <si>
+    <t>B memory</t>
+  </si>
+  <si>
+    <t>B naive</t>
+  </si>
+  <si>
+    <t>CD16 Mono</t>
+  </si>
+  <si>
+    <t>CD4 Naive</t>
+  </si>
+  <si>
+    <t>CD8 Naive</t>
+  </si>
+  <si>
+    <t>CD8 TEM</t>
+  </si>
+  <si>
+    <t>cDC1</t>
+  </si>
+  <si>
+    <t>cDC2</t>
+  </si>
+  <si>
+    <t>NK_CD56bright</t>
+  </si>
+  <si>
+    <t>Treg</t>
+  </si>
+  <si>
+    <t>B memory kappa</t>
+  </si>
+  <si>
+    <t>B memory lambda</t>
+  </si>
+  <si>
+    <t>B naive kappa</t>
+  </si>
+  <si>
+    <t>B naive lambda</t>
+  </si>
+  <si>
+    <t>CD8 Naive_2</t>
+  </si>
+  <si>
+    <t>CD8 TEM_1</t>
+  </si>
+  <si>
+    <t>CD8 TEM_2</t>
+  </si>
+  <si>
+    <t>CD8 TEM_3</t>
+  </si>
+  <si>
+    <t>CD8 TEM_4</t>
+  </si>
+  <si>
+    <t>CD8 TEM_5</t>
+  </si>
+  <si>
+    <t>CD8 TEM_6</t>
+  </si>
+  <si>
+    <t>cDC2_1</t>
+  </si>
+  <si>
+    <t>cDC2_2</t>
+  </si>
+  <si>
+    <t>Treg Memory</t>
+  </si>
+  <si>
+    <t>Treg Naive</t>
+  </si>
+  <si>
+    <t>CD16 monocyte</t>
+  </si>
+  <si>
+    <t>CD4 na√Øve</t>
+  </si>
+  <si>
+    <t>CD8 na√Øve</t>
+  </si>
+  <si>
+    <t>CD8 T cell effector memory</t>
+  </si>
+  <si>
+    <t>dendritic cell type 1 (DC1)</t>
+  </si>
+  <si>
+    <t>dendritic cell type 2 (DC2)</t>
+  </si>
+  <si>
+    <t>dendritic cell type 3 (DC3)</t>
+  </si>
+  <si>
+    <t>CD56 bright Natural killer</t>
+  </si>
+  <si>
+    <t>T regulatory</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>CD4 T cell memory</t>
+  </si>
+  <si>
+    <t>CD4 T cell effector memory CD45RA</t>
+  </si>
+  <si>
+    <t>CD8 T cell memory</t>
+  </si>
+  <si>
+    <t>mature CD8 T cell</t>
+  </si>
+  <si>
     <t>Match Found</t>
   </si>
   <si>
@@ -267,6 +396,156 @@
     <t>plasma cell</t>
   </si>
   <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CD4 T</t>
+  </si>
+  <si>
+    <t>CD8 T</t>
+  </si>
+  <si>
+    <t>other T</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>ASDC</t>
+  </si>
+  <si>
+    <t>B intermediate</t>
+  </si>
+  <si>
+    <t>CD14 Mono</t>
+  </si>
+  <si>
+    <t>CD4 CTL</t>
+  </si>
+  <si>
+    <t>CD4 Proliferating</t>
+  </si>
+  <si>
+    <t>CD4 TCM</t>
+  </si>
+  <si>
+    <t>CD4 TEM</t>
+  </si>
+  <si>
+    <t>CD8 Proliferating</t>
+  </si>
+  <si>
+    <t>CD8 TCM</t>
+  </si>
+  <si>
+    <t>dnT</t>
+  </si>
+  <si>
+    <t>Eryth</t>
+  </si>
+  <si>
+    <t>gdT</t>
+  </si>
+  <si>
+    <t>HSPC</t>
+  </si>
+  <si>
+    <t>ILC</t>
+  </si>
+  <si>
+    <t>MAIT</t>
+  </si>
+  <si>
+    <t>NK Proliferating</t>
+  </si>
+  <si>
+    <t>pDC</t>
+  </si>
+  <si>
+    <t>Plasmablast</t>
+  </si>
+  <si>
+    <t>Platelet</t>
+  </si>
+  <si>
+    <t>ASDC_mDC</t>
+  </si>
+  <si>
+    <t>ASDC_pDC</t>
+  </si>
+  <si>
+    <t>B intermediate kappa</t>
+  </si>
+  <si>
+    <t>B intermediate lambda</t>
+  </si>
+  <si>
+    <t>CD4 TCM_1</t>
+  </si>
+  <si>
+    <t>CD4 TCM_2</t>
+  </si>
+  <si>
+    <t>CD4 TCM_3</t>
+  </si>
+  <si>
+    <t>CD4 TEM_1</t>
+  </si>
+  <si>
+    <t>CD4 TEM_2</t>
+  </si>
+  <si>
+    <t>CD4 TEM_3</t>
+  </si>
+  <si>
+    <t>CD4 TEM_4</t>
+  </si>
+  <si>
+    <t>CD8 TCM_1</t>
+  </si>
+  <si>
+    <t>CD8 TCM_2</t>
+  </si>
+  <si>
+    <t>CD8 TCM_3</t>
+  </si>
+  <si>
+    <t>dnT_1</t>
+  </si>
+  <si>
+    <t>dnT_2</t>
+  </si>
+  <si>
+    <t>gdT_1</t>
+  </si>
+  <si>
+    <t>gdT_2</t>
+  </si>
+  <si>
+    <t>gdT_3</t>
+  </si>
+  <si>
+    <t>gdT_4</t>
+  </si>
+  <si>
+    <t>NK_1</t>
+  </si>
+  <si>
+    <t>NK_2</t>
+  </si>
+  <si>
+    <t>NK_3</t>
+  </si>
+  <si>
+    <t>NK_4</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -439,6 +718,39 @@
   </si>
   <si>
     <t>effector memory CD8-positive, alpha-beta T cell, terminally differentiated</t>
+  </si>
+  <si>
+    <t>B lineage</t>
+  </si>
+  <si>
+    <t>dendritic cell (DC)</t>
+  </si>
+  <si>
+    <t>neutrophilic granulocyte</t>
+  </si>
+  <si>
+    <t>T lymphocytes</t>
+  </si>
+  <si>
+    <t>NK lymphocytes</t>
+  </si>
+  <si>
+    <t>transitional B cell</t>
+  </si>
+  <si>
+    <t>Plasmacytoid Dendritic Cell (pDC)</t>
+  </si>
+  <si>
+    <t>transitional Dendritic Cell (tDC)</t>
+  </si>
+  <si>
+    <t>CD14 monocyte</t>
+  </si>
+  <si>
+    <t>CD8 T cell effector memory CD45RA</t>
+  </si>
+  <si>
+    <t>mature Natural killer</t>
   </si>
   <si>
     <t>CL:0000945 (lymphocyte of B lineage) &gt;&gt; CL:0000542 (lymphocyte) &gt;&gt; CL:0000842 (mononuclear cell) &gt;&gt; CL:0000738 (leukocyte) &gt;&gt; CL:0000219 (motile cell) &gt;&gt; CL:0000003 (native cell) &gt;&gt; CL:0000000 (cell)</t>
@@ -841,18 +1153,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -862,18 +1177,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -883,178 +1201,610 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1064,18 +1814,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1085,18 +1843,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1106,608 +1887,1362 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>83</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
         <v>83</v>
       </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
         <v>84</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
         <v>87</v>
       </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6">
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8">
+      <c r="H48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" t="s">
+        <v>182</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="G24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>114</v>
+      <c r="H52" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1717,378 +3252,452 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3">
+        <v>176</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4">
+        <v>176</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5">
+        <v>176</v>
+      </c>
+      <c r="F5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6">
+        <v>176</v>
+      </c>
+      <c r="F6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
         <v>119</v>
       </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11">
+        <v>176</v>
+      </c>
+      <c r="F11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="G11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12">
+        <v>176</v>
+      </c>
+      <c r="F12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13">
+        <v>176</v>
+      </c>
+      <c r="F13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="G13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14">
+        <v>176</v>
+      </c>
+      <c r="F14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14">
         <v>7</v>
       </c>
-      <c r="G14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15">
+        <v>176</v>
+      </c>
+      <c r="F15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16">
+      <c r="H16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="G16" t="s">
-        <v>153</v>
+      <c r="H17" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2098,122 +3707,175 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>220</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>221</v>
+      </c>
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>223</v>
+      </c>
+      <c r="C7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>229</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>230</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2223,90 +3885,153 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Data/Final/blood_pmbc.xlsx
+++ b/Python/Data/Final/blood_pmbc.xlsx
@@ -14,13 +14,14 @@
     <sheet name="Asctb_match_tree_crosswalk" sheetId="5" r:id="rId5"/>
     <sheet name="Az_cts_mismatch_final" sheetId="6" r:id="rId6"/>
     <sheet name="Asctb_cts_mismatch_final" sheetId="7" r:id="rId7"/>
+    <sheet name="Final_Matches" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="222">
   <si>
     <t>AZ.CT/ID</t>
   </si>
@@ -3093,4 +3094,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python/Data/Final/blood_pmbc.xlsx
+++ b/Python/Data/Final/blood_pmbc.xlsx
@@ -7,21 +7,32 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="1" r:id="rId1"/>
-    <sheet name="Az_incorrect_cts" sheetId="2" r:id="rId2"/>
-    <sheet name="Asctb_incorrect_cts" sheetId="3" r:id="rId3"/>
-    <sheet name="Az_match_tree_crosswalk" sheetId="4" r:id="rId4"/>
-    <sheet name="Asctb_match_tree_crosswalk" sheetId="5" r:id="rId5"/>
-    <sheet name="Az_cts_mismatch_final" sheetId="6" r:id="rId6"/>
-    <sheet name="Asctb_cts_mismatch_final" sheetId="7" r:id="rId7"/>
-    <sheet name="Final_Matches" sheetId="8" r:id="rId8"/>
+    <sheet name="Az_missing_cts" sheetId="1" r:id="rId1"/>
+    <sheet name="Asctb_missing_cts" sheetId="2" r:id="rId2"/>
+    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="3" r:id="rId3"/>
+    <sheet name="Az_incorrect_cts" sheetId="4" r:id="rId4"/>
+    <sheet name="Asctb_incorrect_cts" sheetId="5" r:id="rId5"/>
+    <sheet name="Az_match_tree_crosswalk" sheetId="6" r:id="rId6"/>
+    <sheet name="Asctb_match_tree_crosswalk" sheetId="7" r:id="rId7"/>
+    <sheet name="Az_cts_mismatch_final" sheetId="8" r:id="rId8"/>
+    <sheet name="Asctb_cts_mismatch_final" sheetId="9" r:id="rId9"/>
+    <sheet name="Final_Matches" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="217">
+  <si>
+    <t>CT/ID</t>
+  </si>
+  <si>
+    <t>CT/LABEL</t>
+  </si>
+  <si>
+    <t>CT/LABEL.Author</t>
+  </si>
   <si>
     <t>AZ.CT/ID</t>
   </si>
@@ -210,30 +221,6 @@
   </si>
   <si>
     <t>dendritic cell type 3 (DC3)</t>
-  </si>
-  <si>
-    <t>CT/ID</t>
-  </si>
-  <si>
-    <t>CT/LABEL</t>
-  </si>
-  <si>
-    <t>CT/LABEL.Author</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>CD4 T cell memory</t>
-  </si>
-  <si>
-    <t>CD4 T cell effector memory CD45RA</t>
-  </si>
-  <si>
-    <t>CD8 T cell memory</t>
-  </si>
-  <si>
-    <t>mature CD8 T cell</t>
   </si>
   <si>
     <t>Match Found</t>
@@ -1044,13 +1031,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,594 +1047,258 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1665,18 +1316,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="C2" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1332,620 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1694,33 +1953,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1967,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
@@ -1738,1042 +2001,1042 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
         <v>145</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
         <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" t="s">
-        <v>150</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" t="s">
         <v>145</v>
-      </c>
-      <c r="E6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" t="s">
-        <v>150</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
         <v>145</v>
-      </c>
-      <c r="E7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" t="s">
-        <v>150</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
         <v>145</v>
-      </c>
-      <c r="E8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" t="s">
-        <v>150</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G23">
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G24">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G33">
         <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" t="s">
         <v>145</v>
-      </c>
-      <c r="E34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" t="s">
-        <v>150</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G35">
         <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G36">
         <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" t="s">
         <v>141</v>
       </c>
-      <c r="D37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" t="s">
-        <v>146</v>
-      </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G37">
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G38">
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G39">
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +3044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2791,80 +3054,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
         <v>168</v>
       </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" t="s">
-        <v>173</v>
-      </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2872,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2882,79 +3145,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +3225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2972,376 +3235,123 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
